--- a/Server/db_info.xlsx
+++ b/Server/db_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2256" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>info</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Корпус (test), этаж (test)</t>
   </si>
 </sst>
 </file>
@@ -373,12 +373,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9999</v>
       </c>
@@ -406,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9998</v>
       </c>

--- a/Server/db_info.xlsx
+++ b/Server/db_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>info</t>
   </si>
   <si>
-    <t>Корпус (test), этаж (test)</t>
+    <t>ЭтажКорпус.png</t>
   </si>
 </sst>
 </file>
@@ -373,15 +373,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9999</v>
       </c>
@@ -409,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9998</v>
       </c>

--- a/Server/db_info.xlsx
+++ b/Server/db_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -28,7 +28,61 @@
     <t>info</t>
   </si>
   <si>
-    <t>ЭтажКорпус.png</t>
+    <t>11.png</t>
+  </si>
+  <si>
+    <t>21.png</t>
+  </si>
+  <si>
+    <t>31.png</t>
+  </si>
+  <si>
+    <t>41.png</t>
+  </si>
+  <si>
+    <t>51.png</t>
+  </si>
+  <si>
+    <t>12.png</t>
+  </si>
+  <si>
+    <t>22.png</t>
+  </si>
+  <si>
+    <t>32.png</t>
+  </si>
+  <si>
+    <t>42.png</t>
+  </si>
+  <si>
+    <t>52.png</t>
+  </si>
+  <si>
+    <t>13.png</t>
+  </si>
+  <si>
+    <t>23.png</t>
+  </si>
+  <si>
+    <t>33.png</t>
+  </si>
+  <si>
+    <t>43.png</t>
+  </si>
+  <si>
+    <t>53.png</t>
+  </si>
+  <si>
+    <t>14.png</t>
+  </si>
+  <si>
+    <t>24.png</t>
+  </si>
+  <si>
+    <t>34.png</t>
+  </si>
+  <si>
+    <t>44.png</t>
   </si>
 </sst>
 </file>
@@ -126,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C404" sqref="C404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,13 +451,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9999</v>
+        <v>1071</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -411,16 +465,5616 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9998</v>
+        <v>1081</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1091</v>
+      </c>
+      <c r="B4">
+        <v>333</v>
+      </c>
+      <c r="C4">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1101</v>
+      </c>
+      <c r="B5">
+        <v>409</v>
+      </c>
+      <c r="C5">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1131</v>
+      </c>
+      <c r="B6">
+        <v>647</v>
+      </c>
+      <c r="C6">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1191</v>
+      </c>
+      <c r="B7">
+        <v>843</v>
+      </c>
+      <c r="C7">
+        <v>729</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1201</v>
+      </c>
+      <c r="B8">
+        <v>847</v>
+      </c>
+      <c r="C8">
+        <v>905</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1241</v>
+      </c>
+      <c r="B9">
+        <v>853</v>
+      </c>
+      <c r="C9">
+        <v>1169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1251</v>
+      </c>
+      <c r="B10">
+        <v>845</v>
+      </c>
+      <c r="C10">
+        <v>1371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1381</v>
+      </c>
+      <c r="B11">
+        <v>619</v>
+      </c>
+      <c r="C11">
+        <v>1331</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1391</v>
+      </c>
+      <c r="B12">
+        <v>617</v>
+      </c>
+      <c r="C12">
+        <v>1135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1481</v>
+      </c>
+      <c r="B13">
+        <v>635</v>
+      </c>
+      <c r="C13">
+        <v>999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1401</v>
+      </c>
+      <c r="B14">
+        <v>619</v>
+      </c>
+      <c r="C14">
+        <v>857</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1461</v>
+      </c>
+      <c r="B15">
+        <v>191</v>
+      </c>
+      <c r="C15">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2071</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16">
+        <v>241</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2081</v>
+      </c>
+      <c r="B17">
+        <v>337</v>
+      </c>
+      <c r="C17">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2091</v>
+      </c>
+      <c r="B18">
+        <v>435</v>
+      </c>
+      <c r="C18">
+        <v>241</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2151</v>
+      </c>
+      <c r="B19">
+        <v>767</v>
+      </c>
+      <c r="C19">
+        <v>603</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2181</v>
+      </c>
+      <c r="B20">
+        <v>963</v>
+      </c>
+      <c r="C20">
+        <v>641</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2191</v>
+      </c>
+      <c r="B21">
+        <v>977</v>
+      </c>
+      <c r="C21">
+        <v>795</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2201</v>
+      </c>
+      <c r="B22">
+        <v>951</v>
+      </c>
+      <c r="C22">
+        <v>957</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2221</v>
+      </c>
+      <c r="B23">
+        <v>951</v>
+      </c>
+      <c r="C23">
+        <v>1265</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2231</v>
+      </c>
+      <c r="B24">
+        <v>971</v>
+      </c>
+      <c r="C24">
+        <v>1381</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2361</v>
+      </c>
+      <c r="B25">
+        <v>669</v>
+      </c>
+      <c r="C25">
+        <v>1367</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2371</v>
+      </c>
+      <c r="B26">
+        <v>619</v>
+      </c>
+      <c r="C26">
+        <v>1247</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2381</v>
+      </c>
+      <c r="B27">
+        <v>547</v>
+      </c>
+      <c r="C27">
+        <v>1061</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2391</v>
+      </c>
+      <c r="B28">
+        <v>621</v>
+      </c>
+      <c r="C28">
+        <v>861</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2411</v>
+      </c>
+      <c r="B29">
+        <v>415</v>
+      </c>
+      <c r="C29">
+        <v>501</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2421</v>
+      </c>
+      <c r="B30">
+        <v>197</v>
+      </c>
+      <c r="C30">
+        <v>475</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2431</v>
+      </c>
+      <c r="B31">
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>477</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3091</v>
+      </c>
+      <c r="B32">
+        <v>117</v>
+      </c>
+      <c r="C32">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3101</v>
+      </c>
+      <c r="B33">
+        <v>277</v>
+      </c>
+      <c r="C33">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3111</v>
+      </c>
+      <c r="B34">
+        <v>419</v>
+      </c>
+      <c r="C34">
+        <v>235</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3141</v>
+      </c>
+      <c r="B35">
+        <v>697</v>
+      </c>
+      <c r="C35">
+        <v>315</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3201</v>
+      </c>
+      <c r="B36">
+        <v>941</v>
+      </c>
+      <c r="C36">
+        <v>645</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3211</v>
+      </c>
+      <c r="B37">
+        <v>973</v>
+      </c>
+      <c r="C37">
+        <v>793</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3221</v>
+      </c>
+      <c r="B38">
+        <v>971</v>
+      </c>
+      <c r="C38">
+        <v>887</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3241</v>
+      </c>
+      <c r="B39">
+        <v>953</v>
+      </c>
+      <c r="C39">
+        <v>1235</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3251</v>
+      </c>
+      <c r="B40">
+        <v>975</v>
+      </c>
+      <c r="C40">
+        <v>1289</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3391</v>
+      </c>
+      <c r="B41">
+        <v>601</v>
+      </c>
+      <c r="C41">
+        <v>1361</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3311</v>
+      </c>
+      <c r="B42">
+        <v>667</v>
+      </c>
+      <c r="C42">
+        <v>1131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3401</v>
+      </c>
+      <c r="B43">
+        <v>555</v>
+      </c>
+      <c r="C43">
+        <v>1059</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3411</v>
+      </c>
+      <c r="B44">
+        <v>607</v>
+      </c>
+      <c r="C44">
+        <v>853</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3431</v>
+      </c>
+      <c r="B45">
+        <v>357</v>
+      </c>
+      <c r="C45">
+        <v>541</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3441</v>
+      </c>
+      <c r="B46">
+        <v>207</v>
+      </c>
+      <c r="C46">
+        <v>551</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3451</v>
+      </c>
+      <c r="B47">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>553</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4081</v>
+      </c>
+      <c r="B48">
+        <v>107</v>
+      </c>
+      <c r="C48">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4091</v>
+      </c>
+      <c r="B49">
+        <v>207</v>
+      </c>
+      <c r="C49">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4101</v>
+      </c>
+      <c r="B50">
+        <v>303</v>
+      </c>
+      <c r="C50">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4111</v>
+      </c>
+      <c r="B51">
+        <v>443</v>
+      </c>
+      <c r="C51">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4131</v>
+      </c>
+      <c r="B52">
+        <v>569</v>
+      </c>
+      <c r="C52">
+        <v>311</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4161</v>
+      </c>
+      <c r="B53">
+        <v>755</v>
+      </c>
+      <c r="C53">
+        <v>497</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4191</v>
+      </c>
+      <c r="B54">
+        <v>935</v>
+      </c>
+      <c r="C54">
+        <v>699</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4201</v>
+      </c>
+      <c r="B55">
+        <v>981</v>
+      </c>
+      <c r="C55">
+        <v>889</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4211</v>
+      </c>
+      <c r="B56">
+        <v>977</v>
+      </c>
+      <c r="C56">
+        <v>965</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4231</v>
+      </c>
+      <c r="B57">
+        <v>953</v>
+      </c>
+      <c r="C57">
+        <v>1265</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4281</v>
+      </c>
+      <c r="B58">
+        <v>973</v>
+      </c>
+      <c r="C58">
+        <v>1369</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4271</v>
+      </c>
+      <c r="B59">
+        <v>651</v>
+      </c>
+      <c r="C59">
+        <v>1403</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4371</v>
+      </c>
+      <c r="B60">
+        <v>647</v>
+      </c>
+      <c r="C60">
+        <v>1225</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4381</v>
+      </c>
+      <c r="B61">
+        <v>585</v>
+      </c>
+      <c r="C61">
+        <v>1111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4391</v>
+      </c>
+      <c r="B62">
+        <v>595</v>
+      </c>
+      <c r="C62">
+        <v>745</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4411</v>
+      </c>
+      <c r="B63">
+        <v>381</v>
+      </c>
+      <c r="C63">
+        <v>547</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4421</v>
+      </c>
+      <c r="B64">
+        <v>303</v>
+      </c>
+      <c r="C64">
+        <v>551</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4431</v>
+      </c>
+      <c r="B65">
+        <v>213</v>
+      </c>
+      <c r="C65">
+        <v>553</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4441</v>
+      </c>
+      <c r="B66">
+        <v>109</v>
+      </c>
+      <c r="C66">
+        <v>561</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5081</v>
+      </c>
+      <c r="B67">
+        <v>101</v>
+      </c>
+      <c r="C67">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5091</v>
+      </c>
+      <c r="B68">
+        <v>213</v>
+      </c>
+      <c r="C68">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5101</v>
+      </c>
+      <c r="B69">
+        <v>305</v>
+      </c>
+      <c r="C69">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5111</v>
+      </c>
+      <c r="B70">
+        <v>429</v>
+      </c>
+      <c r="C70">
+        <v>153</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5141</v>
+      </c>
+      <c r="B71">
+        <v>763</v>
+      </c>
+      <c r="C71">
+        <v>267</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5191</v>
+      </c>
+      <c r="B72">
+        <v>959</v>
+      </c>
+      <c r="C72">
+        <v>621</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5201</v>
+      </c>
+      <c r="B73">
+        <v>953</v>
+      </c>
+      <c r="C73">
+        <v>927</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5341</v>
+      </c>
+      <c r="B74">
+        <v>595</v>
+      </c>
+      <c r="C74">
+        <v>1115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5351</v>
+      </c>
+      <c r="B75">
+        <v>601</v>
+      </c>
+      <c r="C75">
+        <v>747</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5371</v>
+      </c>
+      <c r="B76">
+        <v>213</v>
+      </c>
+      <c r="C76">
+        <v>559</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5381</v>
+      </c>
+      <c r="B77">
+        <v>87</v>
+      </c>
+      <c r="C77">
+        <v>559</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1012</v>
+      </c>
+      <c r="B78">
+        <v>731</v>
+      </c>
+      <c r="C78">
+        <v>975</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1022</v>
+      </c>
+      <c r="B79">
+        <v>717</v>
+      </c>
+      <c r="C79">
+        <v>891</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1492</v>
+      </c>
+      <c r="B80">
+        <v>659</v>
+      </c>
+      <c r="C80">
+        <v>735</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1032</v>
+      </c>
+      <c r="B81">
+        <v>589</v>
+      </c>
+      <c r="C81">
+        <v>677</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1042</v>
+      </c>
+      <c r="B82">
+        <v>465</v>
+      </c>
+      <c r="C82">
+        <v>713</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1052</v>
+      </c>
+      <c r="B83">
+        <v>315</v>
+      </c>
+      <c r="C83">
+        <v>721</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1062</v>
+      </c>
+      <c r="B84">
+        <v>199</v>
+      </c>
+      <c r="C84">
+        <v>727</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1112</v>
+      </c>
+      <c r="B85">
+        <v>155</v>
+      </c>
+      <c r="C85">
+        <v>551</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1142</v>
+      </c>
+      <c r="B86">
+        <v>269</v>
+      </c>
+      <c r="C86">
+        <v>573</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1072</v>
+      </c>
+      <c r="B87">
+        <v>223</v>
+      </c>
+      <c r="C87">
+        <v>475</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1082</v>
+      </c>
+      <c r="B88">
+        <v>303</v>
+      </c>
+      <c r="C88">
+        <v>485</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1092</v>
+      </c>
+      <c r="B89">
+        <v>371</v>
+      </c>
+      <c r="C89">
+        <v>487</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1202</v>
+      </c>
+      <c r="B90">
+        <v>409</v>
+      </c>
+      <c r="C90">
+        <v>571</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1102</v>
+      </c>
+      <c r="B91">
+        <v>499</v>
+      </c>
+      <c r="C91">
+        <v>479</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1232</v>
+      </c>
+      <c r="B92">
+        <v>741</v>
+      </c>
+      <c r="C92">
+        <v>215</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1312</v>
+      </c>
+      <c r="B93">
+        <v>843</v>
+      </c>
+      <c r="C93">
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1262</v>
+      </c>
+      <c r="B94">
+        <v>981</v>
+      </c>
+      <c r="C94">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1272</v>
+      </c>
+      <c r="B95">
+        <v>971</v>
+      </c>
+      <c r="C95">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1332</v>
+      </c>
+      <c r="B96">
+        <v>849</v>
+      </c>
+      <c r="C96">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1372</v>
+      </c>
+      <c r="B97">
+        <v>861</v>
+      </c>
+      <c r="C97">
+        <v>553</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1362</v>
+      </c>
+      <c r="B98">
+        <v>715</v>
+      </c>
+      <c r="C98">
+        <v>535</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1382</v>
+      </c>
+      <c r="B99">
+        <v>989</v>
+      </c>
+      <c r="C99">
+        <v>833</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1392</v>
+      </c>
+      <c r="B100">
+        <v>983</v>
+      </c>
+      <c r="C100">
+        <v>1035</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2442</v>
+      </c>
+      <c r="B101">
+        <v>953</v>
+      </c>
+      <c r="C101">
+        <v>869</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2452</v>
+      </c>
+      <c r="B102">
+        <v>985</v>
+      </c>
+      <c r="C102">
+        <v>1111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2472</v>
+      </c>
+      <c r="B103">
+        <v>835</v>
+      </c>
+      <c r="C103">
+        <v>1097</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2462</v>
+      </c>
+      <c r="B104">
+        <v>755</v>
+      </c>
+      <c r="C104">
+        <v>1107</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2012</v>
+      </c>
+      <c r="B105">
+        <v>761</v>
+      </c>
+      <c r="C105">
+        <v>985</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2022</v>
+      </c>
+      <c r="B106">
+        <v>701</v>
+      </c>
+      <c r="C106">
+        <v>855</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2032</v>
+      </c>
+      <c r="B107">
+        <v>621</v>
+      </c>
+      <c r="C107">
+        <v>743</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2042</v>
+      </c>
+      <c r="B108">
+        <v>471</v>
+      </c>
+      <c r="C108">
+        <v>705</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2052</v>
+      </c>
+      <c r="B109">
+        <v>409</v>
+      </c>
+      <c r="C109">
+        <v>695</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2062</v>
+      </c>
+      <c r="B110">
+        <v>303</v>
+      </c>
+      <c r="C110">
+        <v>701</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2072</v>
+      </c>
+      <c r="B111">
+        <v>297</v>
+      </c>
+      <c r="C111">
+        <v>479</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2082</v>
+      </c>
+      <c r="B112">
+        <v>421</v>
+      </c>
+      <c r="C112">
+        <v>495</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2092</v>
+      </c>
+      <c r="B113">
+        <v>511</v>
+      </c>
+      <c r="C113">
+        <v>495</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2272</v>
+      </c>
+      <c r="B114">
+        <v>741</v>
+      </c>
+      <c r="C114">
+        <v>341</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2282</v>
+      </c>
+      <c r="B115">
+        <v>763</v>
+      </c>
+      <c r="C115">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2292</v>
+      </c>
+      <c r="B116">
+        <v>725</v>
+      </c>
+      <c r="C116">
+        <v>153</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2362</v>
+      </c>
+      <c r="B117">
+        <v>987</v>
+      </c>
+      <c r="C117">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2372</v>
+      </c>
+      <c r="B118">
+        <v>989</v>
+      </c>
+      <c r="C118">
+        <v>157</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2382</v>
+      </c>
+      <c r="B119">
+        <v>997</v>
+      </c>
+      <c r="C119">
+        <v>227</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2392</v>
+      </c>
+      <c r="B120">
+        <v>977</v>
+      </c>
+      <c r="C120">
+        <v>273</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2402</v>
+      </c>
+      <c r="B121">
+        <v>983</v>
+      </c>
+      <c r="C121">
+        <v>343</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2252</v>
+      </c>
+      <c r="B122">
+        <v>847</v>
+      </c>
+      <c r="C122">
+        <v>423</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2222</v>
+      </c>
+      <c r="B123">
+        <v>683</v>
+      </c>
+      <c r="C123">
+        <v>605</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3532</v>
+      </c>
+      <c r="B124">
+        <v>945</v>
+      </c>
+      <c r="C124">
+        <v>883</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3542</v>
+      </c>
+      <c r="B125">
+        <v>951</v>
+      </c>
+      <c r="C125">
+        <v>953</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3552</v>
+      </c>
+      <c r="B126">
+        <v>947</v>
+      </c>
+      <c r="C126">
+        <v>983</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3562</v>
+      </c>
+      <c r="B127">
+        <v>945</v>
+      </c>
+      <c r="C127">
+        <v>1031</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3572</v>
+      </c>
+      <c r="B128">
+        <v>951</v>
+      </c>
+      <c r="C128">
+        <v>1087</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3582</v>
+      </c>
+      <c r="B129">
+        <v>889</v>
+      </c>
+      <c r="C129">
+        <v>1145</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3602</v>
+      </c>
+      <c r="B130">
+        <v>737</v>
+      </c>
+      <c r="C130">
+        <v>1145</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3612</v>
+      </c>
+      <c r="B131">
+        <v>667</v>
+      </c>
+      <c r="C131">
+        <v>1089</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3482</v>
+      </c>
+      <c r="B132">
+        <v>807</v>
+      </c>
+      <c r="C132">
+        <v>1011</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3522</v>
+      </c>
+      <c r="B133">
+        <v>807</v>
+      </c>
+      <c r="C133">
+        <v>915</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3012</v>
+      </c>
+      <c r="B134">
+        <v>669</v>
+      </c>
+      <c r="C134">
+        <v>983</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3022</v>
+      </c>
+      <c r="B135">
+        <v>667</v>
+      </c>
+      <c r="C135">
+        <v>925</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3032</v>
+      </c>
+      <c r="B136">
+        <v>663</v>
+      </c>
+      <c r="C136">
+        <v>847</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3042</v>
+      </c>
+      <c r="B137">
+        <v>603</v>
+      </c>
+      <c r="C137">
+        <v>791</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3052</v>
+      </c>
+      <c r="B138">
+        <v>465</v>
+      </c>
+      <c r="C138">
+        <v>739</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3062</v>
+      </c>
+      <c r="B139">
+        <v>399</v>
+      </c>
+      <c r="C139">
+        <v>747</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3072</v>
+      </c>
+      <c r="B140">
+        <v>259</v>
+      </c>
+      <c r="C140">
+        <v>739</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3082</v>
+      </c>
+      <c r="B141">
+        <v>195</v>
+      </c>
+      <c r="C141">
+        <v>735</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3132</v>
+      </c>
+      <c r="B142">
+        <v>273</v>
+      </c>
+      <c r="C142">
+        <v>647</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3192</v>
+      </c>
+      <c r="B143">
+        <v>403</v>
+      </c>
+      <c r="C143">
+        <v>645</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3222</v>
+      </c>
+      <c r="B144">
+        <v>301</v>
+      </c>
+      <c r="C144">
+        <v>547</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3232</v>
+      </c>
+      <c r="B145">
+        <v>413</v>
+      </c>
+      <c r="C145">
+        <v>567</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3242</v>
+      </c>
+      <c r="B146">
+        <v>543</v>
+      </c>
+      <c r="C146">
+        <v>567</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3362</v>
+      </c>
+      <c r="B147">
+        <v>725</v>
+      </c>
+      <c r="C147">
+        <v>429</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3372</v>
+      </c>
+      <c r="B148">
+        <v>709</v>
+      </c>
+      <c r="C148">
+        <v>321</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3412</v>
+      </c>
+      <c r="B149">
+        <v>731</v>
+      </c>
+      <c r="C149">
+        <v>157</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3432</v>
+      </c>
+      <c r="B150">
+        <v>925</v>
+      </c>
+      <c r="C150">
+        <v>155</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3382</v>
+      </c>
+      <c r="B151">
+        <v>929</v>
+      </c>
+      <c r="C151">
+        <v>307</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3342</v>
+      </c>
+      <c r="B152">
+        <v>815</v>
+      </c>
+      <c r="C152">
+        <v>333</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3392</v>
+      </c>
+      <c r="B153">
+        <v>947</v>
+      </c>
+      <c r="C153">
+        <v>479</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3292</v>
+      </c>
+      <c r="B154">
+        <v>815</v>
+      </c>
+      <c r="C154">
+        <v>503</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3442</v>
+      </c>
+      <c r="B155">
+        <v>833</v>
+      </c>
+      <c r="C155">
+        <v>591</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3252</v>
+      </c>
+      <c r="B156">
+        <v>691</v>
+      </c>
+      <c r="C156">
+        <v>613</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4032</v>
+      </c>
+      <c r="B157">
+        <v>559</v>
+      </c>
+      <c r="C157">
+        <v>743</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4042</v>
+      </c>
+      <c r="B158">
+        <v>415</v>
+      </c>
+      <c r="C158">
+        <v>705</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4052</v>
+      </c>
+      <c r="B159">
+        <v>337</v>
+      </c>
+      <c r="C159">
+        <v>701</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4192</v>
+      </c>
+      <c r="B160">
+        <v>355</v>
+      </c>
+      <c r="C160">
+        <v>595</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4132</v>
+      </c>
+      <c r="B161">
+        <v>239</v>
+      </c>
+      <c r="C161">
+        <v>593</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4062</v>
+      </c>
+      <c r="B162">
+        <v>341</v>
+      </c>
+      <c r="C162">
+        <v>509</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4072</v>
+      </c>
+      <c r="B163">
+        <v>419</v>
+      </c>
+      <c r="C163">
+        <v>491</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4082</v>
+      </c>
+      <c r="B164">
+        <v>527</v>
+      </c>
+      <c r="C164">
+        <v>519</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4272</v>
+      </c>
+      <c r="B165">
+        <v>675</v>
+      </c>
+      <c r="C165">
+        <v>403</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4282</v>
+      </c>
+      <c r="B166">
+        <v>659</v>
+      </c>
+      <c r="C166">
+        <v>317</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4292</v>
+      </c>
+      <c r="B167">
+        <v>667</v>
+      </c>
+      <c r="C167">
+        <v>189</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4372</v>
+      </c>
+      <c r="B168">
+        <v>827</v>
+      </c>
+      <c r="C168">
+        <v>183</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4382</v>
+      </c>
+      <c r="B169">
+        <v>849</v>
+      </c>
+      <c r="C169">
+        <v>231</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4392</v>
+      </c>
+      <c r="B170">
+        <v>863</v>
+      </c>
+      <c r="C170">
+        <v>325</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4342</v>
+      </c>
+      <c r="B171">
+        <v>747</v>
+      </c>
+      <c r="C171">
+        <v>325</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4402</v>
+      </c>
+      <c r="B172">
+        <v>881</v>
+      </c>
+      <c r="C172">
+        <v>441</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4252</v>
+      </c>
+      <c r="B173">
+        <v>745</v>
+      </c>
+      <c r="C173">
+        <v>473</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4222</v>
+      </c>
+      <c r="B174">
+        <v>625</v>
+      </c>
+      <c r="C174">
+        <v>577</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4442</v>
+      </c>
+      <c r="B175">
+        <v>857</v>
+      </c>
+      <c r="C175">
+        <v>765</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4452</v>
+      </c>
+      <c r="B176">
+        <v>883</v>
+      </c>
+      <c r="C176">
+        <v>839</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4462</v>
+      </c>
+      <c r="B177">
+        <v>885</v>
+      </c>
+      <c r="C177">
+        <v>881</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4532</v>
+      </c>
+      <c r="B178">
+        <v>883</v>
+      </c>
+      <c r="C178">
+        <v>923</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4542</v>
+      </c>
+      <c r="B179">
+        <v>881</v>
+      </c>
+      <c r="C179">
+        <v>961</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4552</v>
+      </c>
+      <c r="B180">
+        <v>835</v>
+      </c>
+      <c r="C180">
+        <v>1025</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4472</v>
+      </c>
+      <c r="B181">
+        <v>747</v>
+      </c>
+      <c r="C181">
+        <v>961</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4572</v>
+      </c>
+      <c r="B182">
+        <v>655</v>
+      </c>
+      <c r="C182">
+        <v>1007</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4582</v>
+      </c>
+      <c r="B183">
+        <v>619</v>
+      </c>
+      <c r="C183">
+        <v>967</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4482</v>
+      </c>
+      <c r="B184">
+        <v>745</v>
+      </c>
+      <c r="C184">
+        <v>887</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4012</v>
+      </c>
+      <c r="B185">
+        <v>621</v>
+      </c>
+      <c r="C185">
+        <v>871</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4522</v>
+      </c>
+      <c r="B186">
+        <v>751</v>
+      </c>
+      <c r="C186">
+        <v>817</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4022</v>
+      </c>
+      <c r="B187">
+        <v>625</v>
+      </c>
+      <c r="C187">
+        <v>829</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>5292</v>
+      </c>
+      <c r="B188">
+        <v>789</v>
+      </c>
+      <c r="C188">
+        <v>831</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>5302</v>
+      </c>
+      <c r="B189">
+        <v>789</v>
+      </c>
+      <c r="C189">
+        <v>955</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5312</v>
+      </c>
+      <c r="B190">
+        <v>791</v>
+      </c>
+      <c r="C190">
+        <v>1033</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5322</v>
+      </c>
+      <c r="B191">
+        <v>747</v>
+      </c>
+      <c r="C191">
+        <v>1177</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5362</v>
+      </c>
+      <c r="B192">
+        <v>633</v>
+      </c>
+      <c r="C192">
+        <v>1089</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>5372</v>
+      </c>
+      <c r="B193">
+        <v>637</v>
+      </c>
+      <c r="C193">
+        <v>1025</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5412</v>
+      </c>
+      <c r="B194">
+        <v>633</v>
+      </c>
+      <c r="C194">
+        <v>929</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>5342</v>
+      </c>
+      <c r="B195">
+        <v>549</v>
+      </c>
+      <c r="C195">
+        <v>1161</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5352</v>
+      </c>
+      <c r="B196">
+        <v>555</v>
+      </c>
+      <c r="C196">
+        <v>1101</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5012</v>
+      </c>
+      <c r="B197">
+        <v>553</v>
+      </c>
+      <c r="C197">
+        <v>991</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5022</v>
+      </c>
+      <c r="B198">
+        <v>473</v>
+      </c>
+      <c r="C198">
+        <v>871</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5042</v>
+      </c>
+      <c r="B199">
+        <v>359</v>
+      </c>
+      <c r="C199">
+        <v>529</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5052</v>
+      </c>
+      <c r="B200">
+        <v>543</v>
+      </c>
+      <c r="C200">
+        <v>381</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>5062</v>
+      </c>
+      <c r="B201">
+        <v>481</v>
+      </c>
+      <c r="C201">
+        <v>197</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5072</v>
+      </c>
+      <c r="B202">
+        <v>543</v>
+      </c>
+      <c r="C202">
+        <v>157</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5092</v>
+      </c>
+      <c r="B203">
+        <v>759</v>
+      </c>
+      <c r="C203">
+        <v>149</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5162</v>
+      </c>
+      <c r="B204">
+        <v>795</v>
+      </c>
+      <c r="C204">
+        <v>227</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5172</v>
+      </c>
+      <c r="B205">
+        <v>795</v>
+      </c>
+      <c r="C205">
+        <v>293</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5182</v>
+      </c>
+      <c r="B206">
+        <v>795</v>
+      </c>
+      <c r="C206">
+        <v>351</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5192</v>
+      </c>
+      <c r="B207">
+        <v>795</v>
+      </c>
+      <c r="C207">
+        <v>449</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5132</v>
+      </c>
+      <c r="B208">
+        <v>643</v>
+      </c>
+      <c r="C208">
+        <v>317</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>5212</v>
+      </c>
+      <c r="B209">
+        <v>643</v>
+      </c>
+      <c r="C209">
+        <v>501</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5242</v>
+      </c>
+      <c r="B210">
+        <v>507</v>
+      </c>
+      <c r="C210">
+        <v>615</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5252</v>
+      </c>
+      <c r="B211">
+        <v>609</v>
+      </c>
+      <c r="C211">
+        <v>649</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1023</v>
+      </c>
+      <c r="B212">
+        <v>359</v>
+      </c>
+      <c r="C212">
+        <v>1019</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1013</v>
+      </c>
+      <c r="B213">
+        <v>383</v>
+      </c>
+      <c r="C213">
+        <v>967</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1483</v>
+      </c>
+      <c r="B214">
+        <v>403</v>
+      </c>
+      <c r="C214">
+        <v>741</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1473</v>
+      </c>
+      <c r="B215">
+        <v>723</v>
+      </c>
+      <c r="C215">
+        <v>665</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1463</v>
+      </c>
+      <c r="B216">
+        <v>775</v>
+      </c>
+      <c r="C216">
+        <v>663</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1453</v>
+      </c>
+      <c r="B217">
+        <v>873</v>
+      </c>
+      <c r="C217">
+        <v>667</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1333</v>
+      </c>
+      <c r="B218">
+        <v>919</v>
+      </c>
+      <c r="C218">
+        <v>465</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1323</v>
+      </c>
+      <c r="B219">
+        <v>811</v>
+      </c>
+      <c r="C219">
+        <v>465</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1313</v>
+      </c>
+      <c r="B220">
+        <v>735</v>
+      </c>
+      <c r="C220">
+        <v>459</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1303</v>
+      </c>
+      <c r="B221">
+        <v>677</v>
+      </c>
+      <c r="C221">
+        <v>461</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1283</v>
+      </c>
+      <c r="B222">
+        <v>401</v>
+      </c>
+      <c r="C222">
+        <v>251</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1213</v>
+      </c>
+      <c r="B223">
+        <v>229</v>
+      </c>
+      <c r="C223">
+        <v>163</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1203</v>
+      </c>
+      <c r="B224">
+        <v>225</v>
+      </c>
+      <c r="C224">
+        <v>219</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1193</v>
+      </c>
+      <c r="B225">
+        <v>221</v>
+      </c>
+      <c r="C225">
+        <v>263</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1183</v>
+      </c>
+      <c r="B226">
+        <v>217</v>
+      </c>
+      <c r="C226">
+        <v>315</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1173</v>
+      </c>
+      <c r="B227">
+        <v>297</v>
+      </c>
+      <c r="C227">
+        <v>389</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1143</v>
+      </c>
+      <c r="B228">
+        <v>417</v>
+      </c>
+      <c r="C228">
+        <v>507</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1133</v>
+      </c>
+      <c r="B229">
+        <v>267</v>
+      </c>
+      <c r="C229">
+        <v>531</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1063</v>
+      </c>
+      <c r="B230">
+        <v>167</v>
+      </c>
+      <c r="C230">
+        <v>713</v>
+      </c>
+      <c r="D230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1053</v>
+      </c>
+      <c r="B231">
+        <v>175</v>
+      </c>
+      <c r="C231">
+        <v>855</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1043</v>
+      </c>
+      <c r="B232">
+        <v>215</v>
+      </c>
+      <c r="C232">
+        <v>1019</v>
+      </c>
+      <c r="D232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2013</v>
+      </c>
+      <c r="B233">
+        <v>381</v>
+      </c>
+      <c r="C233">
+        <v>961</v>
+      </c>
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2493</v>
+      </c>
+      <c r="B234">
+        <v>407</v>
+      </c>
+      <c r="C234">
+        <v>687</v>
+      </c>
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2483</v>
+      </c>
+      <c r="B235">
+        <v>471</v>
+      </c>
+      <c r="C235">
+        <v>631</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2473</v>
+      </c>
+      <c r="B236">
+        <v>611</v>
+      </c>
+      <c r="C236">
+        <v>605</v>
+      </c>
+      <c r="D236" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2463</v>
+      </c>
+      <c r="B237">
+        <v>721</v>
+      </c>
+      <c r="C237">
+        <v>591</v>
+      </c>
+      <c r="D237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2453</v>
+      </c>
+      <c r="B238">
+        <v>905</v>
+      </c>
+      <c r="C238">
+        <v>591</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2333</v>
+      </c>
+      <c r="B239">
+        <v>901</v>
+      </c>
+      <c r="C239">
+        <v>437</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2323</v>
+      </c>
+      <c r="B240">
+        <v>823</v>
+      </c>
+      <c r="C240">
+        <v>439</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2313</v>
+      </c>
+      <c r="B241">
+        <v>681</v>
+      </c>
+      <c r="C241">
+        <v>425</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2293</v>
+      </c>
+      <c r="B242">
+        <v>359</v>
+      </c>
+      <c r="C242">
+        <v>323</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2283</v>
+      </c>
+      <c r="B243">
+        <v>343</v>
+      </c>
+      <c r="C243">
+        <v>205</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2273</v>
+      </c>
+      <c r="B244">
+        <v>339</v>
+      </c>
+      <c r="C244">
+        <v>151</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2263</v>
+      </c>
+      <c r="B245">
+        <v>339</v>
+      </c>
+      <c r="C245">
+        <v>107</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2183</v>
+      </c>
+      <c r="B246">
+        <v>191</v>
+      </c>
+      <c r="C246">
+        <v>109</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2173</v>
+      </c>
+      <c r="B247">
+        <v>137</v>
+      </c>
+      <c r="C247">
+        <v>251</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2163</v>
+      </c>
+      <c r="B248">
+        <v>149</v>
+      </c>
+      <c r="C248">
+        <v>335</v>
+      </c>
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2153</v>
+      </c>
+      <c r="B249">
+        <v>271</v>
+      </c>
+      <c r="C249">
+        <v>375</v>
+      </c>
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2123</v>
+      </c>
+      <c r="B250">
+        <v>395</v>
+      </c>
+      <c r="C250">
+        <v>479</v>
+      </c>
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2053</v>
+      </c>
+      <c r="B251">
+        <v>141</v>
+      </c>
+      <c r="C251">
+        <v>705</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2043</v>
+      </c>
+      <c r="B252">
+        <v>203</v>
+      </c>
+      <c r="C252">
+        <v>791</v>
+      </c>
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2033</v>
+      </c>
+      <c r="B253">
+        <v>173</v>
+      </c>
+      <c r="C253">
+        <v>869</v>
+      </c>
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3013</v>
+      </c>
+      <c r="B254">
+        <v>371</v>
+      </c>
+      <c r="C254">
+        <v>1017</v>
+      </c>
+      <c r="D254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3533</v>
+      </c>
+      <c r="B255">
+        <v>417</v>
+      </c>
+      <c r="C255">
+        <v>757</v>
+      </c>
+      <c r="D255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3523</v>
+      </c>
+      <c r="B256">
+        <v>491</v>
+      </c>
+      <c r="C256">
+        <v>709</v>
+      </c>
+      <c r="D256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3513</v>
+      </c>
+      <c r="B257">
+        <v>557</v>
+      </c>
+      <c r="C257">
+        <v>641</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3503</v>
+      </c>
+      <c r="B258">
+        <v>791</v>
+      </c>
+      <c r="C258">
+        <v>641</v>
+      </c>
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3493</v>
+      </c>
+      <c r="B259">
+        <v>929</v>
+      </c>
+      <c r="C259">
+        <v>639</v>
+      </c>
+      <c r="D259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3403</v>
+      </c>
+      <c r="B260">
+        <v>825</v>
+      </c>
+      <c r="C260">
+        <v>555</v>
+      </c>
+      <c r="D260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3363</v>
+      </c>
+      <c r="B261">
+        <v>931</v>
+      </c>
+      <c r="C261">
+        <v>431</v>
+      </c>
+      <c r="D261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3353</v>
+      </c>
+      <c r="B262">
+        <v>803</v>
+      </c>
+      <c r="C262">
+        <v>445</v>
+      </c>
+      <c r="D262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3343</v>
+      </c>
+      <c r="B263">
+        <v>661</v>
+      </c>
+      <c r="C263">
+        <v>443</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3333</v>
+      </c>
+      <c r="B264">
+        <v>597</v>
+      </c>
+      <c r="C264">
+        <v>433</v>
+      </c>
+      <c r="D264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3323</v>
+      </c>
+      <c r="B265">
+        <v>517</v>
+      </c>
+      <c r="C265">
+        <v>441</v>
+      </c>
+      <c r="D265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3303</v>
+      </c>
+      <c r="B266">
+        <v>409</v>
+      </c>
+      <c r="C266">
+        <v>303</v>
+      </c>
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3293</v>
+      </c>
+      <c r="B267">
+        <v>411</v>
+      </c>
+      <c r="C267">
+        <v>241</v>
+      </c>
+      <c r="D267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3283</v>
+      </c>
+      <c r="B268">
+        <v>415</v>
+      </c>
+      <c r="C268">
+        <v>187</v>
+      </c>
+      <c r="D268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3273</v>
+      </c>
+      <c r="B269">
+        <v>411</v>
+      </c>
+      <c r="C269">
+        <v>141</v>
+      </c>
+      <c r="D269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>3193</v>
+      </c>
+      <c r="B270">
+        <v>155</v>
+      </c>
+      <c r="C270">
+        <v>205</v>
+      </c>
+      <c r="D270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3183</v>
+      </c>
+      <c r="B271">
+        <v>121</v>
+      </c>
+      <c r="C271">
+        <v>285</v>
+      </c>
+      <c r="D271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3173</v>
+      </c>
+      <c r="B272">
+        <v>133</v>
+      </c>
+      <c r="C272">
+        <v>365</v>
+      </c>
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3153</v>
+      </c>
+      <c r="B273">
+        <v>299</v>
+      </c>
+      <c r="C273">
+        <v>445</v>
+      </c>
+      <c r="D273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3123</v>
+      </c>
+      <c r="B274">
+        <v>423</v>
+      </c>
+      <c r="C274">
+        <v>565</v>
+      </c>
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3163</v>
+      </c>
+      <c r="B275">
+        <v>315</v>
+      </c>
+      <c r="C275">
+        <v>627</v>
+      </c>
+      <c r="D275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3053</v>
+      </c>
+      <c r="B276">
+        <v>153</v>
+      </c>
+      <c r="C276">
+        <v>767</v>
+      </c>
+      <c r="D276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3113</v>
+      </c>
+      <c r="B277">
+        <v>271</v>
+      </c>
+      <c r="C277">
+        <v>831</v>
+      </c>
+      <c r="D277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3073</v>
+      </c>
+      <c r="B278">
+        <v>275</v>
+      </c>
+      <c r="C278">
+        <v>927</v>
+      </c>
+      <c r="D278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3043</v>
+      </c>
+      <c r="B279">
+        <v>185</v>
+      </c>
+      <c r="C279">
+        <v>995</v>
+      </c>
+      <c r="D279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3033</v>
+      </c>
+      <c r="B280">
+        <v>189</v>
+      </c>
+      <c r="C280">
+        <v>1057</v>
+      </c>
+      <c r="D280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>4023</v>
+      </c>
+      <c r="B281">
+        <v>303</v>
+      </c>
+      <c r="C281">
+        <v>1015</v>
+      </c>
+      <c r="D281" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>4013</v>
+      </c>
+      <c r="B282">
+        <v>429</v>
+      </c>
+      <c r="C282">
+        <v>871</v>
+      </c>
+      <c r="D282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>4073</v>
+      </c>
+      <c r="B283">
+        <v>311</v>
+      </c>
+      <c r="C283">
+        <v>903</v>
+      </c>
+      <c r="D283" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>4113</v>
+      </c>
+      <c r="B284">
+        <v>301</v>
+      </c>
+      <c r="C284">
+        <v>841</v>
+      </c>
+      <c r="D284" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>4503</v>
+      </c>
+      <c r="B285">
+        <v>423</v>
+      </c>
+      <c r="C285">
+        <v>751</v>
+      </c>
+      <c r="D285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>4463</v>
+      </c>
+      <c r="B286">
+        <v>543</v>
+      </c>
+      <c r="C286">
+        <v>639</v>
+      </c>
+      <c r="D286" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>4453</v>
+      </c>
+      <c r="B287">
+        <v>701</v>
+      </c>
+      <c r="C287">
+        <v>639</v>
+      </c>
+      <c r="D287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>4443</v>
+      </c>
+      <c r="B288">
+        <v>787</v>
+      </c>
+      <c r="C288">
+        <v>631</v>
+      </c>
+      <c r="D288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>4433</v>
+      </c>
+      <c r="B289">
+        <v>851</v>
+      </c>
+      <c r="C289">
+        <v>627</v>
+      </c>
+      <c r="D289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>4483</v>
+      </c>
+      <c r="B290">
+        <v>947</v>
+      </c>
+      <c r="C290">
+        <v>569</v>
+      </c>
+      <c r="D290" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>4343</v>
+      </c>
+      <c r="B291">
+        <v>833</v>
+      </c>
+      <c r="C291">
+        <v>533</v>
+      </c>
+      <c r="D291" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>4403</v>
+      </c>
+      <c r="B292">
+        <v>725</v>
+      </c>
+      <c r="C292">
+        <v>531</v>
+      </c>
+      <c r="D292" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>4493</v>
+      </c>
+      <c r="B293">
+        <v>799</v>
+      </c>
+      <c r="C293">
+        <v>431</v>
+      </c>
+      <c r="D293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>4303</v>
+      </c>
+      <c r="B294">
+        <v>621</v>
+      </c>
+      <c r="C294">
+        <v>411</v>
+      </c>
+      <c r="D294" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>4293</v>
+      </c>
+      <c r="B295">
+        <v>539</v>
+      </c>
+      <c r="C295">
+        <v>423</v>
+      </c>
+      <c r="D295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>4273</v>
+      </c>
+      <c r="B296">
+        <v>389</v>
+      </c>
+      <c r="C296">
+        <v>323</v>
+      </c>
+      <c r="D296" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>4263</v>
+      </c>
+      <c r="B297">
+        <v>407</v>
+      </c>
+      <c r="C297">
+        <v>221</v>
+      </c>
+      <c r="D297" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>4183</v>
+      </c>
+      <c r="B298">
+        <v>191</v>
+      </c>
+      <c r="C298">
+        <v>203</v>
+      </c>
+      <c r="D298" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>4173</v>
+      </c>
+      <c r="B299">
+        <v>155</v>
+      </c>
+      <c r="C299">
+        <v>271</v>
+      </c>
+      <c r="D299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>4163</v>
+      </c>
+      <c r="B300">
+        <v>169</v>
+      </c>
+      <c r="C300">
+        <v>353</v>
+      </c>
+      <c r="D300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4153</v>
+      </c>
+      <c r="B301">
+        <v>297</v>
+      </c>
+      <c r="C301">
+        <v>389</v>
+      </c>
+      <c r="D301" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>4123</v>
+      </c>
+      <c r="B302">
+        <v>419</v>
+      </c>
+      <c r="C302">
+        <v>505</v>
+      </c>
+      <c r="D302" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>4043</v>
+      </c>
+      <c r="B303">
+        <v>179</v>
+      </c>
+      <c r="C303">
+        <v>733</v>
+      </c>
+      <c r="D303" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>4033</v>
+      </c>
+      <c r="B304">
+        <v>229</v>
+      </c>
+      <c r="C304">
+        <v>883</v>
+      </c>
+      <c r="D304" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>5323</v>
+      </c>
+      <c r="B305">
+        <v>461</v>
+      </c>
+      <c r="C305">
+        <v>1435</v>
+      </c>
+      <c r="D305" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>5293</v>
+      </c>
+      <c r="B306">
+        <v>465</v>
+      </c>
+      <c r="C306">
+        <v>1227</v>
+      </c>
+      <c r="D306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>5253</v>
+      </c>
+      <c r="B307">
+        <v>461</v>
+      </c>
+      <c r="C307">
+        <v>1153</v>
+      </c>
+      <c r="D307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>5223</v>
+      </c>
+      <c r="B308">
+        <v>667</v>
+      </c>
+      <c r="C308">
+        <v>963</v>
+      </c>
+      <c r="D308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>5213</v>
+      </c>
+      <c r="B309">
+        <v>753</v>
+      </c>
+      <c r="C309">
+        <v>875</v>
+      </c>
+      <c r="D309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>5203</v>
+      </c>
+      <c r="B310">
+        <v>831</v>
+      </c>
+      <c r="C310">
+        <v>575</v>
+      </c>
+      <c r="D310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>5083</v>
+      </c>
+      <c r="B311">
+        <v>591</v>
+      </c>
+      <c r="C311">
+        <v>411</v>
+      </c>
+      <c r="D311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>5073</v>
+      </c>
+      <c r="B312">
+        <v>665</v>
+      </c>
+      <c r="C312">
+        <v>241</v>
+      </c>
+      <c r="D312" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>5063</v>
+      </c>
+      <c r="B313">
+        <v>667</v>
+      </c>
+      <c r="C313">
+        <v>157</v>
+      </c>
+      <c r="D313" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>5123</v>
+      </c>
+      <c r="B314">
+        <v>461</v>
+      </c>
+      <c r="C314">
+        <v>313</v>
+      </c>
+      <c r="D314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>5053</v>
+      </c>
+      <c r="B315">
+        <v>331</v>
+      </c>
+      <c r="C315">
+        <v>151</v>
+      </c>
+      <c r="D315" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>5043</v>
+      </c>
+      <c r="B316">
+        <v>321</v>
+      </c>
+      <c r="C316">
+        <v>227</v>
+      </c>
+      <c r="D316" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>5033</v>
+      </c>
+      <c r="B317">
+        <v>321</v>
+      </c>
+      <c r="C317">
+        <v>321</v>
+      </c>
+      <c r="D317" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>5163</v>
+      </c>
+      <c r="B318">
+        <v>489</v>
+      </c>
+      <c r="C318">
+        <v>581</v>
+      </c>
+      <c r="D318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>5023</v>
+      </c>
+      <c r="B319">
+        <v>445</v>
+      </c>
+      <c r="C319">
+        <v>719</v>
+      </c>
+      <c r="D319" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>5193</v>
+      </c>
+      <c r="B320">
+        <v>637</v>
+      </c>
+      <c r="C320">
+        <v>685</v>
+      </c>
+      <c r="D320" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>5013</v>
+      </c>
+      <c r="B321">
+        <v>263</v>
+      </c>
+      <c r="C321">
+        <v>981</v>
+      </c>
+      <c r="D321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1394</v>
+      </c>
+      <c r="B322">
+        <v>961</v>
+      </c>
+      <c r="C322">
+        <v>941</v>
+      </c>
+      <c r="D322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1384</v>
+      </c>
+      <c r="B323">
+        <v>903</v>
+      </c>
+      <c r="C323">
+        <v>767</v>
+      </c>
+      <c r="D323" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1374</v>
+      </c>
+      <c r="B324">
+        <v>913</v>
+      </c>
+      <c r="C324">
+        <v>705</v>
+      </c>
+      <c r="D324" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1364</v>
+      </c>
+      <c r="B325">
+        <v>923</v>
+      </c>
+      <c r="C325">
+        <v>591</v>
+      </c>
+      <c r="D325" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1324</v>
+      </c>
+      <c r="B326">
+        <v>891</v>
+      </c>
+      <c r="C326">
+        <v>365</v>
+      </c>
+      <c r="D326" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1314</v>
+      </c>
+      <c r="B327">
+        <v>613</v>
+      </c>
+      <c r="C327">
+        <v>159</v>
+      </c>
+      <c r="D327" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1304</v>
+      </c>
+      <c r="B328">
+        <v>501</v>
+      </c>
+      <c r="C328">
+        <v>191</v>
+      </c>
+      <c r="D328" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1294</v>
+      </c>
+      <c r="B329">
+        <v>433</v>
+      </c>
+      <c r="C329">
+        <v>195</v>
+      </c>
+      <c r="D329" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1284</v>
+      </c>
+      <c r="B330">
+        <v>379</v>
+      </c>
+      <c r="C330">
+        <v>197</v>
+      </c>
+      <c r="D330" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1274</v>
+      </c>
+      <c r="B331">
+        <v>331</v>
+      </c>
+      <c r="C331">
+        <v>195</v>
+      </c>
+      <c r="D331" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1244</v>
+      </c>
+      <c r="B332">
+        <v>205</v>
+      </c>
+      <c r="C332">
+        <v>193</v>
+      </c>
+      <c r="D332" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1234</v>
+      </c>
+      <c r="B333">
+        <v>141</v>
+      </c>
+      <c r="C333">
+        <v>199</v>
+      </c>
+      <c r="D333" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1154</v>
+      </c>
+      <c r="B334">
+        <v>157</v>
+      </c>
+      <c r="C334">
+        <v>371</v>
+      </c>
+      <c r="D334" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1144</v>
+      </c>
+      <c r="B335">
+        <v>239</v>
+      </c>
+      <c r="C335">
+        <v>365</v>
+      </c>
+      <c r="D335" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1134</v>
+      </c>
+      <c r="B336">
+        <v>327</v>
+      </c>
+      <c r="C336">
+        <v>369</v>
+      </c>
+      <c r="D336" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1124</v>
+      </c>
+      <c r="B337">
+        <v>471</v>
+      </c>
+      <c r="C337">
+        <v>379</v>
+      </c>
+      <c r="D337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1064</v>
+      </c>
+      <c r="B338">
+        <v>705</v>
+      </c>
+      <c r="C338">
+        <v>609</v>
+      </c>
+      <c r="D338" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1034</v>
+      </c>
+      <c r="B339">
+        <v>675</v>
+      </c>
+      <c r="C339">
+        <v>933</v>
+      </c>
+      <c r="D339" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1044</v>
+      </c>
+      <c r="B340">
+        <v>681</v>
+      </c>
+      <c r="C340">
+        <v>857</v>
+      </c>
+      <c r="D340" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2334</v>
+      </c>
+      <c r="B341">
+        <v>959</v>
+      </c>
+      <c r="C341">
+        <v>973</v>
+      </c>
+      <c r="D341" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2324</v>
+      </c>
+      <c r="B342">
+        <v>975</v>
+      </c>
+      <c r="C342">
+        <v>793</v>
+      </c>
+      <c r="D342" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2314</v>
+      </c>
+      <c r="B343">
+        <v>975</v>
+      </c>
+      <c r="C343">
+        <v>737</v>
+      </c>
+      <c r="D343" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2304</v>
+      </c>
+      <c r="B344">
+        <v>957</v>
+      </c>
+      <c r="C344">
+        <v>657</v>
+      </c>
+      <c r="D344" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2274</v>
+      </c>
+      <c r="B345">
+        <v>679</v>
+      </c>
+      <c r="C345">
+        <v>329</v>
+      </c>
+      <c r="D345" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2254</v>
+      </c>
+      <c r="B346">
+        <v>553</v>
+      </c>
+      <c r="C346">
+        <v>165</v>
+      </c>
+      <c r="D346" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2244</v>
+      </c>
+      <c r="B347">
+        <v>449</v>
+      </c>
+      <c r="C347">
+        <v>153</v>
+      </c>
+      <c r="D347" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2234</v>
+      </c>
+      <c r="B348">
+        <v>391</v>
+      </c>
+      <c r="C348">
+        <v>151</v>
+      </c>
+      <c r="D348" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2224</v>
+      </c>
+      <c r="B349">
+        <v>337</v>
+      </c>
+      <c r="C349">
+        <v>151</v>
+      </c>
+      <c r="D349" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2204</v>
+      </c>
+      <c r="B350">
+        <v>205</v>
+      </c>
+      <c r="C350">
+        <v>149</v>
+      </c>
+      <c r="D350" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2194</v>
+      </c>
+      <c r="B351">
+        <v>161</v>
+      </c>
+      <c r="C351">
+        <v>153</v>
+      </c>
+      <c r="D351" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2124</v>
+      </c>
+      <c r="B352">
+        <v>139</v>
+      </c>
+      <c r="C352">
+        <v>403</v>
+      </c>
+      <c r="D352" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2114</v>
+      </c>
+      <c r="B353">
+        <v>203</v>
+      </c>
+      <c r="C353">
+        <v>409</v>
+      </c>
+      <c r="D353" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2104</v>
+      </c>
+      <c r="B354">
+        <v>263</v>
+      </c>
+      <c r="C354">
+        <v>403</v>
+      </c>
+      <c r="D354" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2094</v>
+      </c>
+      <c r="B355">
+        <v>329</v>
+      </c>
+      <c r="C355">
+        <v>397</v>
+      </c>
+      <c r="D355" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2084</v>
+      </c>
+      <c r="B356">
+        <v>393</v>
+      </c>
+      <c r="C356">
+        <v>401</v>
+      </c>
+      <c r="D356" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2074</v>
+      </c>
+      <c r="B357">
+        <v>435</v>
+      </c>
+      <c r="C357">
+        <v>401</v>
+      </c>
+      <c r="D357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2064</v>
+      </c>
+      <c r="B358">
+        <v>549</v>
+      </c>
+      <c r="C358">
+        <v>393</v>
+      </c>
+      <c r="D358" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2044</v>
+      </c>
+      <c r="B359">
+        <v>709</v>
+      </c>
+      <c r="C359">
+        <v>569</v>
+      </c>
+      <c r="D359" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2034</v>
+      </c>
+      <c r="B360">
+        <v>693</v>
+      </c>
+      <c r="C360">
+        <v>761</v>
+      </c>
+      <c r="D360" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2024</v>
+      </c>
+      <c r="B361">
+        <v>745</v>
+      </c>
+      <c r="C361">
+        <v>971</v>
+      </c>
+      <c r="D361" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3334</v>
+      </c>
+      <c r="B362">
+        <v>947</v>
+      </c>
+      <c r="C362">
+        <v>871</v>
+      </c>
+      <c r="D362" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3324</v>
+      </c>
+      <c r="B363">
+        <v>899</v>
+      </c>
+      <c r="C363">
+        <v>717</v>
+      </c>
+      <c r="D363" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3314</v>
+      </c>
+      <c r="B364">
+        <v>909</v>
+      </c>
+      <c r="C364">
+        <v>663</v>
+      </c>
+      <c r="D364" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>3304</v>
+      </c>
+      <c r="B365">
+        <v>907</v>
+      </c>
+      <c r="C365">
+        <v>509</v>
+      </c>
+      <c r="D365" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3264</v>
+      </c>
+      <c r="B366">
+        <v>877</v>
+      </c>
+      <c r="C366">
+        <v>329</v>
+      </c>
+      <c r="D366" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3274</v>
+      </c>
+      <c r="B367">
+        <v>657</v>
+      </c>
+      <c r="C367">
+        <v>265</v>
+      </c>
+      <c r="D367" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>3254</v>
+      </c>
+      <c r="B368">
+        <v>613</v>
+      </c>
+      <c r="C368">
+        <v>155</v>
+      </c>
+      <c r="D368" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>3244</v>
+      </c>
+      <c r="B369">
+        <v>505</v>
+      </c>
+      <c r="C369">
+        <v>149</v>
+      </c>
+      <c r="D369" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>3234</v>
+      </c>
+      <c r="B370">
+        <v>401</v>
+      </c>
+      <c r="C370">
+        <v>149</v>
+      </c>
+      <c r="D370" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3224</v>
+      </c>
+      <c r="B371">
+        <v>361</v>
+      </c>
+      <c r="C371">
+        <v>149</v>
+      </c>
+      <c r="D371" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3204</v>
+      </c>
+      <c r="B372">
+        <v>223</v>
+      </c>
+      <c r="C372">
+        <v>149</v>
+      </c>
+      <c r="D372" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3194</v>
+      </c>
+      <c r="B373">
+        <v>185</v>
+      </c>
+      <c r="C373">
+        <v>149</v>
+      </c>
+      <c r="D373" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3124</v>
+      </c>
+      <c r="B374">
+        <v>165</v>
+      </c>
+      <c r="C374">
+        <v>367</v>
+      </c>
+      <c r="D374" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3114</v>
+      </c>
+      <c r="B375">
+        <v>229</v>
+      </c>
+      <c r="C375">
+        <v>369</v>
+      </c>
+      <c r="D375" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3104</v>
+      </c>
+      <c r="B376">
+        <v>277</v>
+      </c>
+      <c r="C376">
+        <v>365</v>
+      </c>
+      <c r="D376" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>3094</v>
+      </c>
+      <c r="B377">
+        <v>333</v>
+      </c>
+      <c r="C377">
+        <v>371</v>
+      </c>
+      <c r="D377" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>3084</v>
+      </c>
+      <c r="B378">
+        <v>395</v>
+      </c>
+      <c r="C378">
+        <v>367</v>
+      </c>
+      <c r="D378" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>3074</v>
+      </c>
+      <c r="B379">
+        <v>447</v>
+      </c>
+      <c r="C379">
+        <v>363</v>
+      </c>
+      <c r="D379" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3064</v>
+      </c>
+      <c r="B380">
+        <v>575</v>
+      </c>
+      <c r="C380">
+        <v>375</v>
+      </c>
+      <c r="D380" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3044</v>
+      </c>
+      <c r="B381">
+        <v>719</v>
+      </c>
+      <c r="C381">
+        <v>501</v>
+      </c>
+      <c r="D381" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3034</v>
+      </c>
+      <c r="B382">
+        <v>703</v>
+      </c>
+      <c r="C382">
+        <v>687</v>
+      </c>
+      <c r="D382" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3024</v>
+      </c>
+      <c r="B383">
+        <v>673</v>
+      </c>
+      <c r="C383">
+        <v>879</v>
+      </c>
+      <c r="D383" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>4314</v>
+      </c>
+      <c r="B384">
+        <v>931</v>
+      </c>
+      <c r="C384">
+        <v>907</v>
+      </c>
+      <c r="D384" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>4304</v>
+      </c>
+      <c r="B385">
+        <v>919</v>
+      </c>
+      <c r="C385">
+        <v>823</v>
+      </c>
+      <c r="D385" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>4294</v>
+      </c>
+      <c r="B386">
+        <v>915</v>
+      </c>
+      <c r="C386">
+        <v>697</v>
+      </c>
+      <c r="D386" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>4284</v>
+      </c>
+      <c r="B387">
+        <v>917</v>
+      </c>
+      <c r="C387">
+        <v>601</v>
+      </c>
+      <c r="D387" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>4274</v>
+      </c>
+      <c r="B388">
+        <v>953</v>
+      </c>
+      <c r="C388">
+        <v>443</v>
+      </c>
+      <c r="D388" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>4254</v>
+      </c>
+      <c r="B389">
+        <v>799</v>
+      </c>
+      <c r="C389">
+        <v>381</v>
+      </c>
+      <c r="D389" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>4234</v>
+      </c>
+      <c r="B390">
+        <v>581</v>
+      </c>
+      <c r="C390">
+        <v>187</v>
+      </c>
+      <c r="D390" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>4224</v>
+      </c>
+      <c r="B391">
+        <v>493</v>
+      </c>
+      <c r="C391">
+        <v>183</v>
+      </c>
+      <c r="D391" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>4214</v>
+      </c>
+      <c r="B392">
+        <v>409</v>
+      </c>
+      <c r="C392">
+        <v>193</v>
+      </c>
+      <c r="D392" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>4204</v>
+      </c>
+      <c r="B393">
+        <v>337</v>
+      </c>
+      <c r="C393">
+        <v>195</v>
+      </c>
+      <c r="D393" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>4194</v>
+      </c>
+      <c r="B394">
+        <v>271</v>
+      </c>
+      <c r="C394">
+        <v>195</v>
+      </c>
+      <c r="D394" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>4114</v>
+      </c>
+      <c r="B395">
+        <v>117</v>
+      </c>
+      <c r="C395">
+        <v>255</v>
+      </c>
+      <c r="D395" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>4104</v>
+      </c>
+      <c r="B396">
+        <v>203</v>
+      </c>
+      <c r="C396">
+        <v>411</v>
+      </c>
+      <c r="D396" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>4094</v>
+      </c>
+      <c r="B397">
+        <v>261</v>
+      </c>
+      <c r="C397">
+        <v>403</v>
+      </c>
+      <c r="D397" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>4084</v>
+      </c>
+      <c r="B398">
+        <v>335</v>
+      </c>
+      <c r="C398">
+        <v>401</v>
+      </c>
+      <c r="D398" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>4074</v>
+      </c>
+      <c r="B399">
+        <v>435</v>
+      </c>
+      <c r="C399">
+        <v>397</v>
+      </c>
+      <c r="D399" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>4054</v>
+      </c>
+      <c r="B400">
+        <v>727</v>
+      </c>
+      <c r="C400">
+        <v>507</v>
+      </c>
+      <c r="D400" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>4044</v>
+      </c>
+      <c r="B401">
+        <v>739</v>
+      </c>
+      <c r="C401">
+        <v>663</v>
+      </c>
+      <c r="D401" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>4034</v>
+      </c>
+      <c r="B402">
+        <v>715</v>
+      </c>
+      <c r="C402">
+        <v>773</v>
+      </c>
+      <c r="D402" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>4024</v>
+      </c>
+      <c r="B403">
+        <v>753</v>
+      </c>
+      <c r="C403">
+        <v>867</v>
+      </c>
+      <c r="D403" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
